--- a/chapters/2023/Paternité de la variabilité sur de l'orienté objet/assets/data/GitHub_projects_list.xlsx
+++ b/chapters/2023/Paternité de la variabilité sur de l'orienté objet/assets/data/GitHub_projects_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louay\Desktop\m2\retro\examq\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dan18\Documents\Cours\SI5\Bimestre_2\Retro_Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C6F773C1-77A8-47D0-B9DA-D66A574B20A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AB4991-1268-47E3-944D-ACA83E82F59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="github (2)" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="87">
   <si>
     <t>link-href</t>
   </si>
@@ -251,12 +251,42 @@
   </si>
   <si>
     <t>Contributors</t>
+  </si>
+  <si>
+    <t>VP</t>
+  </si>
+  <si>
+    <t>VARIANT</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>EngineHub/WorldEdit</t>
+  </si>
+  <si>
+    <t>https://github.com/EngineHub/WorldEdit</t>
+  </si>
+  <si>
+    <t>https://github.com/galenframework/galen</t>
+  </si>
+  <si>
+    <t>galenframework/galen</t>
+  </si>
+  <si>
+    <t>https://github.com/netty/netty</t>
+  </si>
+  <si>
+    <t>netty/netty</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -758,10 +788,13 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -819,6 +852,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1110,28 +1147,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="54" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="72.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
@@ -1141,412 +1179,814 @@
       <c r="C1" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="3">
+        <v>605</v>
+      </c>
+      <c r="D2" s="3">
+        <v>497</v>
+      </c>
+      <c r="E2" s="3">
+        <v>722</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="3">
+        <v>96</v>
+      </c>
+      <c r="D3" s="3">
+        <v>52</v>
+      </c>
+      <c r="E3" s="3">
+        <v>265</v>
+      </c>
+      <c r="F3" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>61</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C2">
+      <c r="C4" s="3">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C3">
+      <c r="C5" s="3">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="3">
+        <v>46</v>
+      </c>
+      <c r="F5" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>63</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>64</v>
       </c>
-      <c r="C4">
+      <c r="C6" s="3">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="C5">
+      <c r="C7" s="3">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>30</v>
       </c>
-      <c r="C6">
+      <c r="C8" s="3">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7">
+      <c r="C9" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="D9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="3">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8">
+      <c r="C10" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="D10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="3">
+        <v>13</v>
+      </c>
+      <c r="F10" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C9">
+      <c r="C11" s="3">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="D11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>53</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C10">
+      <c r="C12" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="D12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="3">
+        <v>28</v>
+      </c>
+      <c r="F12" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>3</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C11">
+      <c r="C13" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="D13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="3">
+        <v>21</v>
+      </c>
+      <c r="F13" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>5</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C12">
+      <c r="C14" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="D14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="3">
+        <v>15</v>
+      </c>
+      <c r="F14" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C13">
+      <c r="C15" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="D15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="3">
+        <v>34</v>
+      </c>
+      <c r="F15" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>33</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C14">
+      <c r="C16" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="D16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>39</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C15">
+      <c r="C17" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="D17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="3">
+        <v>41</v>
+      </c>
+      <c r="F17" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>51</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C16">
+      <c r="C18" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="D18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="3">
+        <v>20</v>
+      </c>
+      <c r="F18" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>57</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C17">
+      <c r="C19" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="D19" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="3">
+        <v>3</v>
+      </c>
+      <c r="F19" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>67</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C18">
+      <c r="C20" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="D20" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="3">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3">
         <v>69</v>
       </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C19">
+      <c r="C21" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="D21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="3">
         <v>27</v>
       </c>
-      <c r="B20" t="s">
+      <c r="F21" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C20">
+      <c r="C22" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="D22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="3">
+        <v>50</v>
+      </c>
+      <c r="F22" s="3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>55</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C21">
+      <c r="C23" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="D23" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="3">
+        <v>11</v>
+      </c>
+      <c r="F23" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>65</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B24" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C22">
+      <c r="C24" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="D24" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>7</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C23">
+      <c r="C25" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="D25" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="3">
+        <v>8</v>
+      </c>
+      <c r="F25" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>17</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C24">
+      <c r="C26" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="D26" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>35</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C25">
+      <c r="C27" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="D27" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="3">
+        <v>16</v>
+      </c>
+      <c r="F27" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>47</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B28" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C26">
+      <c r="C28" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="D28" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="3">
+        <v>11</v>
+      </c>
+      <c r="F28" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>31</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B29" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C27">
+      <c r="C29" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="D29" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="3">
+        <v>6</v>
+      </c>
+      <c r="F29" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>41</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B30" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C28">
+      <c r="C30" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="D30" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>45</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B31" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C29">
+      <c r="C31" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="D31" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="3">
+        <v>13</v>
+      </c>
+      <c r="D32" s="3">
+        <v>9</v>
+      </c>
+      <c r="E32" s="3">
+        <v>71</v>
+      </c>
+      <c r="F32" s="3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>49</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B33" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C30">
+      <c r="C33" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="D33" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2</v>
+      </c>
+      <c r="F33" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>15</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B34" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C31">
+      <c r="C34" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="D34" s="3">
+        <v>10</v>
+      </c>
+      <c r="E34" s="3">
+        <v>20</v>
+      </c>
+      <c r="F34" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>1</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B35" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C32">
+      <c r="C35" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="D35" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>19</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B36" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C33">
+      <c r="C36" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="D36" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="3">
+        <v>4</v>
+      </c>
+      <c r="F36" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>43</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B37" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C34">
+      <c r="C37" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="D37" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="3">
+        <v>3</v>
+      </c>
+      <c r="F37" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>71</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B38" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C35">
+      <c r="C38" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="D38" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="3">
+        <v>8</v>
+      </c>
+      <c r="F38" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>9</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B39" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C36">
+      <c r="C39" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="D39" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="3">
+        <v>4</v>
+      </c>
+      <c r="F39" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>37</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B40" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C37">
+      <c r="C40" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="D40" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" s="3">
+        <v>3</v>
+      </c>
+      <c r="F40" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>59</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B41" t="s">
         <v>60</v>
       </c>
-      <c r="C38">
+      <c r="C41" s="3">
         <v>10</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1554,9 +1994,335 @@
     <sortCondition descending="1" ref="C1:C83"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B40" r:id="rId2" xr:uid="{94526723-CCED-4372-900C-6B2B56E698F4}"/>
+    <hyperlink ref="B39" r:id="rId3" xr:uid="{CD8896E8-7D85-42C8-9D1E-74172430B4C9}"/>
+    <hyperlink ref="B38" r:id="rId4" xr:uid="{5EE4F58E-D325-4505-9AD0-EEED93E2CBB2}"/>
+    <hyperlink ref="B37" r:id="rId5" xr:uid="{60456B35-0D2B-4127-8F05-EF19223FDE31}"/>
+    <hyperlink ref="B36" r:id="rId6" xr:uid="{CA6692EB-7491-406A-BA51-7967D0BD4996}"/>
+    <hyperlink ref="B35" r:id="rId7" xr:uid="{C01E4B16-5BF2-4024-9C12-579EC02569A5}"/>
+    <hyperlink ref="B34" r:id="rId8" xr:uid="{C9E466CA-C5C9-48E4-9543-77DFF8D568DB}"/>
+    <hyperlink ref="B33" r:id="rId9" xr:uid="{7FAD62BD-9012-4BC6-8B4B-3FE55D784BF9}"/>
+    <hyperlink ref="B31" r:id="rId10" xr:uid="{2CFBEC0E-0449-4C52-8BE2-77346400A88A}"/>
+    <hyperlink ref="B30" r:id="rId11" xr:uid="{1E10CE28-1447-4F4A-8F4E-86B556F20C46}"/>
+    <hyperlink ref="B29" r:id="rId12" xr:uid="{6A5408B5-E3A2-4B6E-91D2-8B6F965260AE}"/>
+    <hyperlink ref="B28" r:id="rId13" xr:uid="{72DECCA5-451D-4A8A-8759-6BA6EE2A9B95}"/>
+    <hyperlink ref="B27" r:id="rId14" xr:uid="{4495EAA4-7820-4480-B69D-C66704CC2115}"/>
+    <hyperlink ref="B26" r:id="rId15" xr:uid="{2B5982F5-FC13-4EBE-9331-20CFCA12BDE1}"/>
+    <hyperlink ref="B25" r:id="rId16" xr:uid="{042ECA4A-5910-48F8-9047-453D4E2AFFB3}"/>
+    <hyperlink ref="B24" r:id="rId17" xr:uid="{3BCEB0A7-1851-414C-94A5-F496F979B688}"/>
+    <hyperlink ref="B23" r:id="rId18" xr:uid="{A05C7F73-B0F6-477F-9E45-9349D0C7E9B4}"/>
+    <hyperlink ref="B22" r:id="rId19" xr:uid="{D41540FA-BBA5-4214-AAB9-7579850322A9}"/>
+    <hyperlink ref="B21" r:id="rId20" xr:uid="{E982A852-D213-4117-BBE0-B88B96A24CA6}"/>
+    <hyperlink ref="B20" r:id="rId21" xr:uid="{38032EDA-1253-4D6C-A931-AB0288CE5475}"/>
+    <hyperlink ref="B19" r:id="rId22" xr:uid="{EC25CFE2-D65C-4EEA-9AB7-8959D8FD973B}"/>
+    <hyperlink ref="B18" r:id="rId23" xr:uid="{9638D721-B439-41F8-B4E8-6D356671B11D}"/>
+    <hyperlink ref="B17" r:id="rId24" xr:uid="{BA86954A-25BD-48F2-ABC4-958EDB655D8E}"/>
+    <hyperlink ref="B16" r:id="rId25" xr:uid="{2B8998C7-3A10-42A7-B965-A84ABFE51544}"/>
+    <hyperlink ref="B15" r:id="rId26" xr:uid="{AA4C2980-161D-4A18-B429-56A7C02E8345}"/>
+    <hyperlink ref="B14" r:id="rId27" xr:uid="{4FFB2D00-5D6B-4B78-882D-BC03FDFD1527}"/>
+    <hyperlink ref="B13" r:id="rId28" xr:uid="{30EC21C1-4D5B-4A3A-8761-99C5B4766964}"/>
+    <hyperlink ref="B12" r:id="rId29" xr:uid="{C323CC51-8959-4A88-8FE2-FA78E3F879DF}"/>
+    <hyperlink ref="B11" r:id="rId30" xr:uid="{83F6A011-A268-4F4A-B031-A6C07A6B9D59}"/>
+    <hyperlink ref="B10" r:id="rId31" xr:uid="{A0CD83D7-B6E1-4212-92AB-CD88E5137E61}"/>
+    <hyperlink ref="B9" r:id="rId32" xr:uid="{1CCF3755-AEBC-48DA-A0EA-503705BAFDC6}"/>
+    <hyperlink ref="B3" r:id="rId33" xr:uid="{D1F230FE-C5AA-449F-A000-C319840E0309}"/>
+    <hyperlink ref="B32" r:id="rId34" xr:uid="{896F3E12-57DC-4F5D-92D2-1B5D852406B9}"/>
+    <hyperlink ref="A32" r:id="rId35" display="https://github.com/galenframework/galen" xr:uid="{8CA56C9E-D9CB-4261-9EF7-0DCAB51F19CB}"/>
+    <hyperlink ref="B4" r:id="rId36" xr:uid="{22531833-962D-4126-8F6B-0DBF5ACF6CDA}"/>
+    <hyperlink ref="B2" r:id="rId37" xr:uid="{E643C8E1-2CB6-43D2-ADA2-F20F5BABE285}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId38"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010051A20EF669BCC148AAA2FAEC256407D6" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="7b7a11ad65c42f339c03ba79e4bc7399">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1a7163f4-4715-407f-bb2e-fdf558cdfc57" xmlns:ns4="d5aed9ab-b67c-401a-91f9-ac880921ae14" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bd692cbb4924c552fda71ff67a4c0aab" ns3:_="" ns4:_="">
+    <xsd:import namespace="1a7163f4-4715-407f-bb2e-fdf558cdfc57"/>
+    <xsd:import namespace="d5aed9ab-b67c-401a-91f9-ac880921ae14"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1a7163f4-4715-407f-bb2e-fdf558cdfc57" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="16" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="18" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="19" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="21" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d5aed9ab-b67c-401a-91f9-ac880921ae14" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Partagé avec" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="Partagé avec détails" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="14" nillable="true" ma:displayName="Partage du hachage d’indicateur" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1a7163f4-4715-407f-bb2e-fdf558cdfc57" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC306AE-406E-4B3A-B0B6-5F62B5E75630}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1a7163f4-4715-407f-bb2e-fdf558cdfc57"/>
+    <ds:schemaRef ds:uri="d5aed9ab-b67c-401a-91f9-ac880921ae14"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E2608D3-7F75-4D16-A653-72A505AB742F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD122E21-8225-4B67-B45F-E5C2ECA3AFB4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="d5aed9ab-b67c-401a-91f9-ac880921ae14"/>
+    <ds:schemaRef ds:uri="1a7163f4-4715-407f-bb2e-fdf558cdfc57"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>